--- a/data/trans_dic/P1403-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1403-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1527201940835257</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2127662565266092</v>
+        <v>0.2127662565266093</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1595014044479701</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1311293197809202</v>
+        <v>0.1330810568758205</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.16697326855272</v>
+        <v>0.1659237597367082</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1293367712003397</v>
+        <v>0.1286574394348929</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1846072219706491</v>
+        <v>0.184879418957939</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1303651806395675</v>
+        <v>0.1364378457396082</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2125150730301748</v>
+        <v>0.2133936103066043</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1638629447496969</v>
+        <v>0.1674455832741337</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2265265926072682</v>
+        <v>0.222929421007017</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1393945707481469</v>
+        <v>0.1375039373556516</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1995689000517062</v>
+        <v>0.1983646192961773</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1532966683770447</v>
+        <v>0.1540057513499648</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2116099744442816</v>
+        <v>0.2122232542490061</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1852560995345235</v>
+        <v>0.1870736561462654</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2310322253204744</v>
+        <v>0.2274167945180387</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.183999205419125</v>
+        <v>0.1837771489477139</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2437681506552166</v>
+        <v>0.2433696400831895</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1868058234623887</v>
+        <v>0.1891768799007554</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2779742794077201</v>
+        <v>0.2813257197995958</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2282932891183828</v>
+        <v>0.2276269151211694</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2718872854644914</v>
+        <v>0.2697277483238618</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1766413125192939</v>
+        <v>0.1771991554173408</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2419387832067648</v>
+        <v>0.2466391652649828</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1940729004247547</v>
+        <v>0.1947981568264888</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2490322764216482</v>
+        <v>0.2506278346945258</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1005786311934837</v>
+        <v>0.1013603900992956</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1245447132050691</v>
+        <v>0.1231700737123939</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.132128147161775</v>
+        <v>0.130615173648892</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1510934948133042</v>
+        <v>0.1509363626216654</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1590120834480239</v>
+        <v>0.1591135387937677</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1620713159478502</v>
+        <v>0.159985477050811</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.143379840615718</v>
+        <v>0.1435774233407472</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1724325322814252</v>
+        <v>0.1734334799662814</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1361344059468312</v>
+        <v>0.1366554614409582</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1501885507516588</v>
+        <v>0.1506279112537778</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1454935022836424</v>
+        <v>0.146544814017672</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1677225160125177</v>
+        <v>0.1678591310468493</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1419627406904942</v>
+        <v>0.1431324334740943</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1709095338737955</v>
+        <v>0.1703461827955646</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1794667435960696</v>
+        <v>0.177577797168872</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1991209515704225</v>
+        <v>0.198361643997764</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.208264379952002</v>
+        <v>0.20770118045622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2116036101086051</v>
+        <v>0.2115832141511634</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1926418835980596</v>
+        <v>0.1936244022902566</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2110452679923752</v>
+        <v>0.2106902008908153</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1677666362469118</v>
+        <v>0.168396437502832</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1848823364911584</v>
+        <v>0.1849478457109723</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1783149080615559</v>
+        <v>0.1791985998989018</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1967089802567181</v>
+        <v>0.1978358560215684</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1790399858503054</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.168523109930539</v>
+        <v>0.1685231099305389</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1505221968486417</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1029916451933917</v>
+        <v>0.1046245211481425</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1231252632293756</v>
+        <v>0.1247044574321829</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1183382982023101</v>
+        <v>0.1176471574614003</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1708432662302211</v>
+        <v>0.1681065803862236</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1445775312167408</v>
+        <v>0.1464106550927656</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1496167482985011</v>
+        <v>0.1491341555797308</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1538411316174942</v>
+        <v>0.1499760653678104</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.149709466455247</v>
+        <v>0.1482391818415713</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.133520433336266</v>
+        <v>0.1319359759822351</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1406517823782318</v>
+        <v>0.1423133690041382</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1426324412903378</v>
+        <v>0.1429127205921762</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1659262743776447</v>
+        <v>0.1664342976704978</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1581228151148406</v>
+        <v>0.1571014010257786</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1776899581619612</v>
+        <v>0.1799521077467711</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.169458265100317</v>
+        <v>0.1692242393802647</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2277602924078133</v>
+        <v>0.22674304900583</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2042467147404165</v>
+        <v>0.2036661704136092</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2052706874329799</v>
+        <v>0.2035252107688918</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2117131633184108</v>
+        <v>0.2088038666832875</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1918495655395135</v>
+        <v>0.191745852969083</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1700256729250172</v>
+        <v>0.170738240533315</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1819173808879729</v>
+        <v>0.1818907009471671</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1812087319059452</v>
+        <v>0.1812469256143041</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.200929306791463</v>
+        <v>0.2001766199784321</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1641747912391355</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2125543626701217</v>
+        <v>0.2125543626701216</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1033075161033378</v>
+        <v>0.1050867384677915</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1619735282938558</v>
+        <v>0.16257556847443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1317348680707024</v>
+        <v>0.1305939903837521</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.168327438251219</v>
+        <v>0.1667883449794177</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1384846492032394</v>
+        <v>0.1410320774487765</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2060297786644454</v>
+        <v>0.2068065965440732</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1493100958663237</v>
+        <v>0.1503681864859235</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2130342670637348</v>
+        <v>0.2117630959846064</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1281539696099779</v>
+        <v>0.1279657435520654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1932647191612971</v>
+        <v>0.1926749367633422</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1477489000920781</v>
+        <v>0.1477312989501829</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1975912621584533</v>
+        <v>0.1980277266275121</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1431734334180191</v>
+        <v>0.1450060539671885</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2135328314303243</v>
+        <v>0.2142661125376156</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1771121977321231</v>
+        <v>0.1799678619439933</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.212578667585532</v>
+        <v>0.2139154817367497</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1844465328058784</v>
+        <v>0.1850720689813163</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2622590329711281</v>
+        <v>0.2605750400274631</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2010842585265122</v>
+        <v>0.201304411378432</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2533124478365756</v>
+        <v>0.254161081114688</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.158749059534391</v>
+        <v>0.161706064297493</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2323145589656304</v>
+        <v>0.2314239262987903</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1800636042581517</v>
+        <v>0.1804036471349627</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2271065828127844</v>
+        <v>0.2276903640836547</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1514792265437319</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1914574042116959</v>
+        <v>0.1914574042116958</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1695076079990115</v>
@@ -1229,7 +1229,7 @@
         <v>0.1775696854656333</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2094539160882854</v>
+        <v>0.2094539160882853</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1502492372171193</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1190774442169663</v>
+        <v>0.1199360001544244</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1545451281408175</v>
+        <v>0.1551357116521257</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1407467184313437</v>
+        <v>0.1402524675108192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1799135786488717</v>
+        <v>0.1792595713738267</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1572873601588115</v>
+        <v>0.1570960726635292</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1965456280369122</v>
+        <v>0.1961909835707255</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1646829496265349</v>
+        <v>0.164580379928122</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1994117955380253</v>
+        <v>0.2003165303538612</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1410635251657069</v>
+        <v>0.14192235129128</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1791697911722974</v>
+        <v>0.1804435993573174</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1561655219439043</v>
+        <v>0.1553508186577207</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1920994022419835</v>
+        <v>0.1928770684469373</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.140764783986977</v>
+        <v>0.1420972124981716</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1812543355865568</v>
+        <v>0.1810603239779834</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1650040590614794</v>
+        <v>0.1647289656398298</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2054466332475294</v>
+        <v>0.2049459219049194</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1824461428922814</v>
+        <v>0.1815213150850077</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2236760078358644</v>
+        <v>0.2239258875936537</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1930660623732073</v>
+        <v>0.1916367501233719</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2203134357291446</v>
+        <v>0.2209614251038768</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1583193070288458</v>
+        <v>0.1593495410290106</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1990857311681808</v>
+        <v>0.1996610315538545</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1739489397607601</v>
+        <v>0.1732541285381172</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2082534406605682</v>
+        <v>0.2090058879738482</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>91005</v>
+        <v>92360</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>117461</v>
+        <v>116722</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>87276</v>
+        <v>86818</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>127407</v>
+        <v>127595</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>89737</v>
+        <v>93917</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>148134</v>
+        <v>148746</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>110253</v>
+        <v>112664</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>165981</v>
+        <v>163345</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>192694</v>
+        <v>190080</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>279500</v>
+        <v>277813</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>206589</v>
+        <v>207544</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>301094</v>
+        <v>301966</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>128570</v>
+        <v>129831</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>162524</v>
+        <v>159981</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>124163</v>
+        <v>124013</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>168237</v>
+        <v>167962</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>128588</v>
+        <v>130220</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>193762</v>
+        <v>196098</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>153605</v>
+        <v>153156</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>199218</v>
+        <v>197635</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>244182</v>
+        <v>244954</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>338840</v>
+        <v>345423</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>261540</v>
+        <v>262518</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>354341</v>
+        <v>356611</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>96737</v>
+        <v>97488</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>126780</v>
+        <v>125381</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>135092</v>
+        <v>133545</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>158333</v>
+        <v>158168</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>153986</v>
+        <v>154084</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>166767</v>
+        <v>164621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>149533</v>
+        <v>149739</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>184437</v>
+        <v>185508</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>262766</v>
+        <v>263771</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>307424</v>
+        <v>308323</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>300494</v>
+        <v>302665</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>355158</v>
+        <v>355447</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>136540</v>
+        <v>137665</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>173977</v>
+        <v>173403</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>183492</v>
+        <v>181561</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>208661</v>
+        <v>207866</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>201682</v>
+        <v>201136</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>217734</v>
+        <v>217713</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>200909</v>
+        <v>201933</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>225738</v>
+        <v>225358</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>323822</v>
+        <v>325038</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>378440</v>
+        <v>378574</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>368282</v>
+        <v>370107</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>416537</v>
+        <v>418924</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>69881</v>
+        <v>70989</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>93283</v>
+        <v>94479</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>89884</v>
+        <v>89359</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>136649</v>
+        <v>134460</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>98868</v>
+        <v>100122</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>116112</v>
+        <v>115738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>120767</v>
+        <v>117733</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>121319</v>
+        <v>120127</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>181902</v>
+        <v>179743</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>215716</v>
+        <v>218264</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>220305</v>
+        <v>220738</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>267176</v>
+        <v>267995</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>107288</v>
+        <v>106595</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>134622</v>
+        <v>136336</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>128712</v>
+        <v>128535</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>182174</v>
+        <v>181361</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>139672</v>
+        <v>139275</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>159303</v>
+        <v>157949</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>166197</v>
+        <v>163913</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>155468</v>
+        <v>155384</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>231634</v>
+        <v>232605</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>279005</v>
+        <v>278964</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>279888</v>
+        <v>279947</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>323539</v>
+        <v>322327</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>97339</v>
+        <v>99015</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>153509</v>
+        <v>154079</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>123510</v>
+        <v>122441</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>166490</v>
+        <v>164968</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>143832</v>
+        <v>146478</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>216723</v>
+        <v>217540</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>155847</v>
+        <v>156951</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>237865</v>
+        <v>236446</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>253852</v>
+        <v>253479</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>386460</v>
+        <v>385281</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>292742</v>
+        <v>292707</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>416056</v>
+        <v>416975</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>134901</v>
+        <v>136628</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>202373</v>
+        <v>203068</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>166055</v>
+        <v>168732</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>210258</v>
+        <v>211580</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>191568</v>
+        <v>192218</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>275871</v>
+        <v>274099</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>209888</v>
+        <v>210117</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>282838</v>
+        <v>283786</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>314456</v>
+        <v>320313</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>464545</v>
+        <v>462765</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>356768</v>
+        <v>357442</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>478205</v>
+        <v>479434</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>390162</v>
+        <v>392975</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>529592</v>
+        <v>531616</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>477744</v>
+        <v>476066</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>634555</v>
+        <v>632248</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>531505</v>
+        <v>530859</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>698521</v>
+        <v>697261</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>583726</v>
+        <v>583362</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>743658</v>
+        <v>747032</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>938882</v>
+        <v>944598</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1250743</v>
+        <v>1259635</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1083616</v>
+        <v>1077963</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1393922</v>
+        <v>1399565</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>461222</v>
+        <v>465588</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>621119</v>
+        <v>620454</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>560082</v>
+        <v>559148</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>724610</v>
+        <v>722844</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>616521</v>
+        <v>613396</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>794942</v>
+        <v>795830</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>684331</v>
+        <v>679265</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>821606</v>
+        <v>824023</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1053732</v>
+        <v>1060589</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1389772</v>
+        <v>1393788</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1207013</v>
+        <v>1202192</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1511140</v>
+        <v>1516600</v>
       </c>
     </row>
     <row r="24">
